--- a/Resume_Metrics/Metrics_Comparison123/Grid/RandEnAct/10Enem/10x10/resume_metrics_comparison_by_strategy_EG.xlsx
+++ b/Resume_Metrics/Metrics_Comparison123/Grid/RandEnAct/10Enem/10x10/resume_metrics_comparison_by_strategy_EG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,6 +570,76 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DQN_EG_basic</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1050.0 ± 719.25</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.35 ± 2.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.72 ± 217.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69 ± 6.5 (5/5)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'Game 0': 'ok', 'Game 1': 'ok', 'Game 2': 'ok', 'Game 3': 'ok', 'Game 4': 'ok'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DQN_EG_causal_offline</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2955.2 ± 863.2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99 ± 0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>41.49 ± 63.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.45 ± 6.71 (5/5)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'Game 0': 'ok', 'Game 1': 'ok', 'Game 2': 'ok', 'Game 3': 'ok', 'Game 4': 'ok'}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
